--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Zahlbruckner/Alexander_Zahlbruckner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Zahlbruckner/Alexander_Zahlbruckner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Zahlbruckner (Svätý Jur, Slovaquie, 31 mai 1860 – 8 mai 1938) est un botaniste autrichien surtout connu pour ses travaux sur les lichens.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils d'un botaniste autrichien, Johann Babtist Zahlbruckner (1782–1850), lui-même très connu à son époque, Alexander Zahlbruckner termine ses études à la faculté de philosophie de Vienne en 1883. Sa soutenance de thèse rend compte de ses observations sur les lenticelles, sortes de pores que l'on rencontre à la surface de certains organes des plantes vasculaires. La même année, il accepte à titre bénévole la responsabilité de l'herbier des plantes vasculaires du Muséum d'histoire naturelle de Vienne. Il devient assistant scientifique dans cet établissement en 1886 et en sera plus tard nommé conservateur, d'abord de seconde classe (1900), puis de première classe (1912). Il sera toutefois contraint de prendre sa retraite à 62 ans, en 1922, en raison de la situation économique désastreuse de l'Autriche à l'issue de la Première Guerre mondiale.
 </t>
@@ -542,7 +556,9 @@
           <t>Le lichénologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son intérêt pour les lichens lui vient rapidement puisqu'il publie quatre articles dans ce domaine dès 1885 et 1886. Par la suite, son activité scientifique sera entièrement consacrée à ce groupe.
 Son premier centre d'intérêt est la floristique : recherches de nature bibliographique et inventaire des espèces de lichens des régions voisines de son lieu de naissance et de résidence : Slovaquie, Basse Autriche, Bosnie, Herzégovine, Styrie, puis l'ensemble des Balkans.
@@ -577,7 +593,9 @@
           <t>Influence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système d'Alexander Zahlbruckner fut à la base des classifications des lichens pendant une bonne partie du XXe siècle. Il fut peu à peu révisé, jusqu'à devenir obsolète du fait de l'avènement des classifications phylogénétiques, en particulier celles faisant appel à la biologie moléculaire et confirmant la nature polyphylétique des champignons lichénisés. En revanche, son Catalogus Lichenum Universalis reste une référence incontournable de la lichénologie.
 </t>
@@ -608,7 +626,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pišút, I., 2002. Alexander Zahlbruckner (1860–1938): the author of two historical milestones in lichenology. The Bryologist, 105, 243 245. Première page de l'article
 </t>
